--- a/data/georgia_census/qvemo-qartli/tetriwyaro/population_total.xlsx
+++ b/data/georgia_census/qvemo-qartli/tetriwyaro/population_total.xlsx
@@ -1365,13 +1365,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5945512-530F-40EA-9047-4431E64C4B86}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46183A21-73AD-4E93-80DB-E4293C37D06A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCFB9B75-7C71-4BF5-A92F-E06CA350C8D9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CADCCE1-95BB-4FD9-A91F-C14829BFF2A0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6FCDB21-D9B8-4D6A-9627-313B1A0FAA14}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C303DA71-FA89-47EC-955B-AD7865AD3125}"/>
 </file>